--- a/dados_projeto.xlsx
+++ b/dados_projeto.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,69 +495,199 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>Inicio(REPRO)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Fim(REPRO)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Observações</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Nota de Trabalho</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>O resultado esperado foi alcançado?</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Se não, o que será feito?</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ObraCivil</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>Infraestrutura</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>N04</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ASV</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>CGA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>N15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ASDSAD</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Renan Tales</t>
+          <t>Jayr Rodrigues</t>
         </is>
       </c>
       <c r="H2" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>45592</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>45626</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>ADASDA</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>AFASDAS</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>SIM</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>ADSDAS</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Concluída</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ventilação</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ASV</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>FGS</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>N7</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ASDSAD</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Geraldo Duarte</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="n">
         <v>45587</v>
       </c>
-      <c r="I2" s="2" t="n">
-        <v>45587</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>45587</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>45587</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
+      <c r="I3" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>ADASDA</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>AFASDAS</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>SIM</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>ADSDAS</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Concluída</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dados_projeto.xlsx
+++ b/dados_projeto.xlsx
@@ -1,144 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas Silva Pereira\anglo\sistema-gestao-plano-perdas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A38CF5-6ABE-44D7-8039-E1EEE285F448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>Acao</t>
-  </si>
-  <si>
-    <t>Corpo</t>
-  </si>
-  <si>
-    <t>Nível</t>
-  </si>
-  <si>
-    <t>Impacto</t>
-  </si>
-  <si>
-    <t>Responsavel</t>
-  </si>
-  <si>
-    <t>Inicio Plan</t>
-  </si>
-  <si>
-    <t>Fim Plan</t>
-  </si>
-  <si>
-    <t>Inicio Real</t>
-  </si>
-  <si>
-    <t>Fim Real</t>
-  </si>
-  <si>
-    <t>Inicio(REPRO)</t>
-  </si>
-  <si>
-    <t>Fim(REPRO)</t>
-  </si>
-  <si>
-    <t>Observações</t>
-  </si>
-  <si>
-    <t>Nota de Trabalho</t>
-  </si>
-  <si>
-    <t>O resultado esperado foi alcançado?</t>
-  </si>
-  <si>
-    <t>Se não, o que será feito?</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Semana do ano</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -147,29 +46,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -457,94 +408,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-  </sheetData>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/dados_projeto.xlsx
+++ b/dados_projeto.xlsx
@@ -16,14 +16,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +42,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +50,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +432,220 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Area</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Local</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Acao</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Corpo</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Nível</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Impacto</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Responsavel</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio Plan</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Fim Plan</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio Real</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Fim Real</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Inicio(REPRO)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Fim(REPRO)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Observações</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Nota de Trabalho</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>O resultado esperado foi alcançado?</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Se não, o que será feito?</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Dias</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Classificação Impacto</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Alerta</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Transporte</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Renan Tales</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Atrasada</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Transporte</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Renan Tales</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>45580</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>45589</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>45588</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>45596</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Concluída</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/dados_projeto.xlsx
+++ b/dados_projeto.xlsx
@@ -1,42 +1,160 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Acao</t>
+  </si>
+  <si>
+    <t>Corpo</t>
+  </si>
+  <si>
+    <t>Nível</t>
+  </si>
+  <si>
+    <t>Impacto</t>
+  </si>
+  <si>
+    <t>Responsavel</t>
+  </si>
+  <si>
+    <t>Inicio Plan</t>
+  </si>
+  <si>
+    <t>Fim Plan</t>
+  </si>
+  <si>
+    <t>Inicio Real</t>
+  </si>
+  <si>
+    <t>Fim Real</t>
+  </si>
+  <si>
+    <t>Inicio(REPRO)</t>
+  </si>
+  <si>
+    <t>Fim(REPRO)</t>
+  </si>
+  <si>
+    <t>Observações</t>
+  </si>
+  <si>
+    <t>Nota de Trabalho</t>
+  </si>
+  <si>
+    <t>O resultado esperado foi alcançado?</t>
+  </si>
+  <si>
+    <t>Se não, o que será feito?</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Dias</t>
+  </si>
+  <si>
+    <t>Classificação Impacto</t>
+  </si>
+  <si>
+    <t>Alerta</t>
+  </si>
+  <si>
+    <t>Transporte</t>
+  </si>
+  <si>
+    <t>Caldeiraria</t>
+  </si>
+  <si>
+    <t>teaste</t>
+  </si>
+  <si>
+    <t>N04</t>
+  </si>
+  <si>
+    <t>safaf</t>
+  </si>
+  <si>
+    <t>teste</t>
+  </si>
+  <si>
+    <t>BAL</t>
+  </si>
+  <si>
+    <t>EXT</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>teset</t>
+  </si>
+  <si>
+    <t>Renan Tales</t>
+  </si>
+  <si>
+    <t>Darley</t>
+  </si>
+  <si>
+    <t>Atrasada</t>
+  </si>
+  <si>
+    <t>Concluída</t>
+  </si>
+  <si>
+    <t>Programada</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,95 +169,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -427,225 +487,273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Area</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Local</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Acao</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Corpo</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Nível</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Impacto</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Responsavel</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Inicio Plan</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Fim Plan</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Inicio Real</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Fim Real</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Inicio(REPRO)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Fim(REPRO)</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Observações</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Nota de Trabalho</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>O resultado esperado foi alcançado?</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Se não, o que será feito?</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Dias</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Classificação Impacto</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Alerta</t>
-        </is>
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Transporte</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>BAL</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Renan Tales</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2">
         <v>45580</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="2">
         <v>45589</v>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Atrasada</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+      <c r="R2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Transporte</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>BAL</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>N1</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Renan Tales</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="n">
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2">
         <v>45580</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="2">
         <v>45589</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="J3" s="2">
         <v>45588</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" s="2">
         <v>45596</v>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Concluída</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+      <c r="R3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2">
+        <v>45622</v>
+      </c>
+      <c r="I4" s="2">
+        <v>45623</v>
+      </c>
+      <c r="J4" s="2">
+        <v>45625</v>
+      </c>
+      <c r="K4" s="2">
+        <v>45626</v>
+      </c>
+      <c r="L4" s="2">
+        <v>45627</v>
+      </c>
+      <c r="M4" s="2">
+        <v>45629</v>
+      </c>
+      <c r="R4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="2">
+        <v>45609</v>
+      </c>
+      <c r="I7" s="2">
+        <v>45610</v>
+      </c>
+      <c r="J7" s="2">
+        <v>45618</v>
+      </c>
+      <c r="K7" s="2">
+        <v>45619</v>
+      </c>
+      <c r="R7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="3">
+        <v>45609</v>
+      </c>
+      <c r="I8" s="3">
+        <v>45610</v>
+      </c>
+      <c r="J8" s="3">
+        <v>45618</v>
+      </c>
+      <c r="K8" s="3">
+        <v>45619</v>
+      </c>
+      <c r="R8" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dados_projeto.xlsx
+++ b/dados_projeto.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Area</t>
   </si>
@@ -70,61 +70,22 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Dias</t>
-  </si>
-  <si>
     <t>Classificação Impacto</t>
   </si>
   <si>
-    <t>Alerta</t>
-  </si>
-  <si>
     <t>Transporte</t>
   </si>
   <si>
-    <t>Caldeiraria</t>
-  </si>
-  <si>
-    <t>teaste</t>
-  </si>
-  <si>
-    <t>N04</t>
-  </si>
-  <si>
-    <t>safaf</t>
-  </si>
-  <si>
-    <t>teste</t>
-  </si>
-  <si>
     <t>BAL</t>
   </si>
   <si>
-    <t>EXT</t>
-  </si>
-  <si>
     <t>N1</t>
   </si>
   <si>
-    <t>teset</t>
-  </si>
-  <si>
-    <t>Renan Tales</t>
-  </si>
-  <si>
-    <t>Darley</t>
-  </si>
-  <si>
-    <t>Atrasada</t>
-  </si>
-  <si>
-    <t>Concluída</t>
-  </si>
-  <si>
-    <t>Programada</t>
-  </si>
-  <si>
-    <t>_</t>
+    <t>RENAN TALES</t>
+  </si>
+  <si>
+    <t>PROGRAMADA</t>
   </si>
 </sst>
 </file>
@@ -488,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,205 +513,101 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="D2" t="s">
         <v>20</v>
       </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45608</v>
+      </c>
+      <c r="I2" s="2">
+        <v>45609</v>
+      </c>
+      <c r="J2" s="2">
+        <v>45624</v>
+      </c>
+      <c r="K2" s="2">
+        <v>45625</v>
+      </c>
+      <c r="L2" s="2">
+        <v>45626</v>
+      </c>
+      <c r="M2" s="2">
+        <v>45627</v>
+      </c>
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="2">
-        <v>45580</v>
-      </c>
-      <c r="I2" s="2">
-        <v>45589</v>
-      </c>
-      <c r="R2" t="s">
-        <v>33</v>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2">
+        <v>45615</v>
+      </c>
+      <c r="I3" s="2">
+        <v>45616</v>
+      </c>
+      <c r="J3" s="2">
+        <v>45618</v>
+      </c>
+      <c r="K3" s="2">
+        <v>45619</v>
+      </c>
+      <c r="L3" s="2">
+        <v>45620</v>
+      </c>
+      <c r="M3" s="2">
+        <v>45621</v>
+      </c>
+      <c r="O3">
+        <v>1234</v>
+      </c>
+      <c r="R3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="2">
-        <v>45580</v>
-      </c>
-      <c r="I3" s="2">
-        <v>45589</v>
-      </c>
-      <c r="J3" s="2">
-        <v>45588</v>
-      </c>
-      <c r="K3" s="2">
-        <v>45596</v>
-      </c>
-      <c r="R3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H4" s="3">
+        <v>45615</v>
+      </c>
+      <c r="I4" s="3">
+        <v>45615</v>
+      </c>
+      <c r="R4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="2">
-        <v>45622</v>
-      </c>
-      <c r="I4" s="2">
-        <v>45623</v>
-      </c>
-      <c r="J4" s="2">
-        <v>45625</v>
-      </c>
-      <c r="K4" s="2">
-        <v>45626</v>
-      </c>
-      <c r="L4" s="2">
-        <v>45627</v>
-      </c>
-      <c r="M4" s="2">
-        <v>45629</v>
-      </c>
-      <c r="R4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="2">
-        <v>45609</v>
-      </c>
-      <c r="I7" s="2">
-        <v>45610</v>
-      </c>
-      <c r="J7" s="2">
-        <v>45618</v>
-      </c>
-      <c r="K7" s="2">
-        <v>45619</v>
-      </c>
-      <c r="R7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="3">
-        <v>45609</v>
-      </c>
-      <c r="I8" s="3">
-        <v>45610</v>
-      </c>
-      <c r="J8" s="3">
-        <v>45618</v>
-      </c>
-      <c r="K8" s="3">
-        <v>45619</v>
-      </c>
-      <c r="R8" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
